--- a/stat_range_d.xlsx
+++ b/stat_range_d.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangyanh/PycharmProjects/code-FDM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC3BFB0-3377-C846-85BF-CA80C48571E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0314B8-0B78-7842-AD33-CB7C5956A4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28420" windowHeight="16120" xr2:uid="{A961275D-17DE-BE40-B6A5-A93A17CFFC72}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28420" windowHeight="16120" activeTab="2" xr2:uid="{A961275D-17DE-BE40-B6A5-A93A17CFFC72}"/>
   </bookViews>
   <sheets>
     <sheet name="Adult" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="CelebA" sheetId="4" r:id="rId4"/>
     <sheet name="Blobs" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -476,7 +476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A94E04E6-A8FE-BD40-B48F-D271CA8DE7FD}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
@@ -1574,8 +1574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A11917-0F72-D448-802A-6B27DE5EBBB6}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1613,6 +1613,12 @@
       <c r="D2">
         <v>15</v>
       </c>
+      <c r="E2">
+        <v>1.25</v>
+      </c>
+      <c r="F2">
+        <v>1.57</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -1627,6 +1633,13 @@
       <c r="D3">
         <v>15</v>
       </c>
+      <c r="E3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F3">
+        <f>1.57</f>
+        <v>1.57</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -1640,6 +1653,12 @@
       </c>
       <c r="D4">
         <v>15</v>
+      </c>
+      <c r="E4">
+        <v>1.02</v>
+      </c>
+      <c r="F4">
+        <v>1.56</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">

--- a/stat_range_d.xlsx
+++ b/stat_range_d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangyanh/PycharmProjects/code-FDM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0314B8-0B78-7842-AD33-CB7C5956A4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9323E04D-F9C4-CF4E-9CBD-1F791538E4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28420" windowHeight="16120" activeTab="2" xr2:uid="{A961275D-17DE-BE40-B6A5-A93A17CFFC72}"/>
   </bookViews>
@@ -1575,7 +1575,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1673,6 +1673,12 @@
       </c>
       <c r="D5">
         <v>15</v>
+      </c>
+      <c r="E5">
+        <v>0.98</v>
+      </c>
+      <c r="F5">
+        <v>1.5</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">

--- a/stat_range_d.xlsx
+++ b/stat_range_d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangyanh/PycharmProjects/code-FDM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9323E04D-F9C4-CF4E-9CBD-1F791538E4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAAFFE1-801B-5E46-9DD4-DD527D968EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28420" windowHeight="16120" activeTab="2" xr2:uid="{A961275D-17DE-BE40-B6A5-A93A17CFFC72}"/>
   </bookViews>
@@ -1575,7 +1575,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1614,7 +1614,7 @@
         <v>15</v>
       </c>
       <c r="E2">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="F2">
         <v>1.57</v>
@@ -1634,7 +1634,7 @@
         <v>15</v>
       </c>
       <c r="E3">
-        <v>1.1000000000000001</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="F3">
         <f>1.57</f>
@@ -1655,10 +1655,10 @@
         <v>15</v>
       </c>
       <c r="E4">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="F4">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1675,10 +1675,10 @@
         <v>15</v>
       </c>
       <c r="E5">
-        <v>0.98</v>
+        <v>1.03</v>
       </c>
       <c r="F5">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1694,6 +1694,12 @@
       <c r="D6">
         <v>15</v>
       </c>
+      <c r="E6">
+        <v>0.97</v>
+      </c>
+      <c r="F6">
+        <v>1.57</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -1708,6 +1714,12 @@
       <c r="D7">
         <v>15</v>
       </c>
+      <c r="E7">
+        <v>0.93</v>
+      </c>
+      <c r="F7">
+        <v>1.57</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -1722,6 +1734,13 @@
       <c r="D8">
         <v>15</v>
       </c>
+      <c r="E8">
+        <v>0.9</v>
+      </c>
+      <c r="F8">
+        <f>1.57</f>
+        <v>1.57</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -1735,6 +1754,12 @@
       </c>
       <c r="D9">
         <v>15</v>
+      </c>
+      <c r="E9">
+        <v>0.87</v>
+      </c>
+      <c r="F9">
+        <v>1.57</v>
       </c>
     </row>
   </sheetData>

--- a/stat_range_d.xlsx
+++ b/stat_range_d.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangyanh/PycharmProjects/code-FDM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAAFFE1-801B-5E46-9DD4-DD527D968EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03CA128-FAF7-1740-B0E2-FF3CF173CFA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28420" windowHeight="16120" activeTab="2" xr2:uid="{A961275D-17DE-BE40-B6A5-A93A17CFFC72}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28420" windowHeight="16120" activeTab="4" xr2:uid="{A961275D-17DE-BE40-B6A5-A93A17CFFC72}"/>
   </bookViews>
   <sheets>
     <sheet name="Adult" sheetId="1" r:id="rId1"/>
@@ -1574,8 +1574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A11917-0F72-D448-802A-6B27DE5EBBB6}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2226,8 +2226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAFE17B8-5574-754A-9F3C-2C21A6C0B80B}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2305,6 +2305,12 @@
       <c r="E4">
         <v>2</v>
       </c>
+      <c r="F4">
+        <v>1.8</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -2390,6 +2396,12 @@
       <c r="E9">
         <v>10</v>
       </c>
+      <c r="F9">
+        <v>1.8</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -2441,6 +2453,12 @@
       <c r="E12">
         <v>5</v>
       </c>
+      <c r="F12">
+        <v>1.8</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -2458,6 +2476,12 @@
       <c r="E13">
         <v>15</v>
       </c>
+      <c r="F13">
+        <v>1.8</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
@@ -2475,6 +2499,12 @@
       <c r="E14" s="4">
         <v>20</v>
       </c>
+      <c r="F14">
+        <v>1.8</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -2491,6 +2521,12 @@
       </c>
       <c r="E15">
         <v>25</v>
+      </c>
+      <c r="F15">
+        <v>1.8</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/stat_range_d.xlsx
+++ b/stat_range_d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangyanh/PycharmProjects/code-FDM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03CA128-FAF7-1740-B0E2-FF3CF173CFA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE87210-94D2-F348-B1D2-0FE3E02819A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28420" windowHeight="16120" activeTab="4" xr2:uid="{A961275D-17DE-BE40-B6A5-A93A17CFFC72}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="21">
   <si>
     <t>Dataset</t>
   </si>
@@ -110,7 +110,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -122,13 +122,6 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -154,12 +147,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2224,10 +2216,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAFE17B8-5574-754A-9F3C-2C21A6C0B80B}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2266,7 +2258,7 @@
         <v>1000</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -2283,7 +2275,7 @@
         <v>10000</v>
       </c>
       <c r="D3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -2300,16 +2292,10 @@
         <v>100000</v>
       </c>
       <c r="D4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>2</v>
-      </c>
-      <c r="F4">
-        <v>1.8</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2323,7 +2309,7 @@
         <v>1000000</v>
       </c>
       <c r="D5">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -2340,7 +2326,7 @@
         <v>10000000</v>
       </c>
       <c r="D6">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -2357,7 +2343,7 @@
         <v>1000</v>
       </c>
       <c r="D7">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>10</v>
@@ -2374,7 +2360,7 @@
         <v>10000</v>
       </c>
       <c r="D8">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>10</v>
@@ -2391,16 +2377,10 @@
         <v>100000</v>
       </c>
       <c r="D9">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>10</v>
-      </c>
-      <c r="F9">
-        <v>1.8</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -2414,7 +2394,7 @@
         <v>1000000</v>
       </c>
       <c r="D10">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>10</v>
@@ -2431,7 +2411,7 @@
         <v>10000000</v>
       </c>
       <c r="D11">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -2448,16 +2428,10 @@
         <v>100000</v>
       </c>
       <c r="D12">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>5</v>
-      </c>
-      <c r="F12">
-        <v>1.8</v>
-      </c>
-      <c r="G12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -2471,39 +2445,27 @@
         <v>100000</v>
       </c>
       <c r="D13">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E13">
-        <v>15</v>
-      </c>
-      <c r="F13">
-        <v>1.8</v>
-      </c>
-      <c r="G13">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14">
         <v>100000</v>
       </c>
-      <c r="D14" s="4">
-        <v>50</v>
-      </c>
-      <c r="E14" s="4">
-        <v>20</v>
-      </c>
-      <c r="F14">
-        <v>1.8</v>
-      </c>
-      <c r="G14">
-        <v>3</v>
+      <c r="D14">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -2517,16 +2479,112 @@
         <v>100000</v>
       </c>
       <c r="D15">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E15">
-        <v>25</v>
-      </c>
-      <c r="F15">
-        <v>1.8</v>
-      </c>
-      <c r="G15">
-        <v>3</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <v>100000</v>
+      </c>
+      <c r="D16">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17">
+        <v>100000</v>
+      </c>
+      <c r="D17">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18">
+        <v>100000</v>
+      </c>
+      <c r="D18">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>100000</v>
+      </c>
+      <c r="D19">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>100000</v>
+      </c>
+      <c r="D20">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>100000</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/stat_range_d.xlsx
+++ b/stat_range_d.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangyanh/PycharmProjects/code-FDM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE87210-94D2-F348-B1D2-0FE3E02819A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC961EF-197D-FD43-851B-26E89CA155B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28420" windowHeight="16120" activeTab="4" xr2:uid="{A961275D-17DE-BE40-B6A5-A93A17CFFC72}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28420" windowHeight="16120" activeTab="3" xr2:uid="{A961275D-17DE-BE40-B6A5-A93A17CFFC72}"/>
   </bookViews>
   <sheets>
     <sheet name="Adult" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="21">
   <si>
     <t>Dataset</t>
   </si>
@@ -469,7 +469,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="G2" sqref="G2:G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1081,10 +1081,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6EF897F-5DBF-8441-BDEB-198FBFA12D8F}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1122,8 +1122,12 @@
       <c r="D2" s="2">
         <v>2</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="E2" s="3">
+        <v>40</v>
+      </c>
+      <c r="F2" s="3">
+        <v>60</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -1138,8 +1142,12 @@
       <c r="D3" s="2">
         <v>2</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="E3" s="3">
+        <v>32</v>
+      </c>
+      <c r="F3" s="3">
+        <v>50</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -1154,8 +1162,12 @@
       <c r="D4" s="2">
         <v>2</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="E4" s="3">
+        <v>27.5</v>
+      </c>
+      <c r="F4" s="3">
+        <v>45</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -1170,8 +1182,12 @@
       <c r="D5" s="2">
         <v>2</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="E5" s="3">
+        <v>25</v>
+      </c>
+      <c r="F5" s="3">
+        <v>42.5</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -1186,8 +1202,12 @@
       <c r="D6" s="2">
         <v>2</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="E6" s="3">
+        <v>24</v>
+      </c>
+      <c r="F6" s="3">
+        <v>40</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -1202,8 +1222,12 @@
       <c r="D7" s="2">
         <v>2</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="E7" s="3">
+        <v>24</v>
+      </c>
+      <c r="F7" s="3">
+        <v>40</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -1218,8 +1242,12 @@
       <c r="D8" s="2">
         <v>2</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="E8" s="3">
+        <v>24</v>
+      </c>
+      <c r="F8" s="3">
+        <v>40</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -1234,8 +1262,12 @@
       <c r="D9" s="2">
         <v>2</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="E9" s="3">
+        <v>22</v>
+      </c>
+      <c r="F9" s="3">
+        <v>38</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -1250,8 +1282,12 @@
       <c r="D10" s="2">
         <v>2</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="E10" s="3">
+        <v>21</v>
+      </c>
+      <c r="F10" s="3">
+        <v>37.5</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -1266,8 +1302,12 @@
       <c r="D11" s="2">
         <v>2</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="E11" s="3">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3">
+        <v>37.5</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -1277,13 +1317,17 @@
         <v>10</v>
       </c>
       <c r="C12" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D12" s="2">
         <v>7</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="E12" s="3">
+        <v>13</v>
+      </c>
+      <c r="F12" s="3">
+        <v>50</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -1293,13 +1337,17 @@
         <v>10</v>
       </c>
       <c r="C13" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D13" s="2">
         <v>7</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="E13" s="3">
+        <v>11</v>
+      </c>
+      <c r="F13" s="3">
+        <v>45</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -1309,13 +1357,17 @@
         <v>10</v>
       </c>
       <c r="C14" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D14" s="2">
         <v>7</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="E14" s="3">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3">
+        <v>42.5</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -1325,13 +1377,17 @@
         <v>10</v>
       </c>
       <c r="C15" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D15" s="2">
         <v>7</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="E15" s="3">
+        <v>9</v>
+      </c>
+      <c r="F15" s="3">
+        <v>40</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -1341,13 +1397,17 @@
         <v>10</v>
       </c>
       <c r="C16" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D16" s="2">
         <v>7</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="E16" s="3">
+        <v>8</v>
+      </c>
+      <c r="F16" s="3">
+        <v>40</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -1357,13 +1417,17 @@
         <v>10</v>
       </c>
       <c r="C17" s="2">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D17" s="2">
         <v>7</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="E17" s="3">
+        <v>8</v>
+      </c>
+      <c r="F17" s="3">
+        <v>40</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -1373,13 +1437,17 @@
         <v>10</v>
       </c>
       <c r="C18" s="2">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D18" s="2">
         <v>7</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="E18" s="3">
+        <v>8</v>
+      </c>
+      <c r="F18" s="3">
+        <v>38</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -1389,13 +1457,17 @@
         <v>10</v>
       </c>
       <c r="C19" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D19" s="2">
         <v>7</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="E19" s="3">
+        <v>7</v>
+      </c>
+      <c r="F19" s="3">
+        <v>37.5</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -1405,29 +1477,37 @@
         <v>10</v>
       </c>
       <c r="C20" s="2">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D20" s="2">
         <v>7</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="E20" s="3">
+        <v>7</v>
+      </c>
+      <c r="F20" s="3">
+        <v>37.5</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C21" s="2">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="D21" s="2">
-        <v>7</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="E21" s="3">
+        <v>11</v>
+      </c>
+      <c r="F21" s="3">
+        <v>45</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -1437,13 +1517,17 @@
         <v>12</v>
       </c>
       <c r="C22" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D22" s="2">
         <v>14</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="E22" s="3">
+        <v>10</v>
+      </c>
+      <c r="F22" s="3">
+        <v>42.5</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -1453,13 +1537,17 @@
         <v>12</v>
       </c>
       <c r="C23" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D23" s="2">
         <v>14</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="E23" s="3">
+        <v>9</v>
+      </c>
+      <c r="F23" s="3">
+        <v>40</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -1469,13 +1557,17 @@
         <v>12</v>
       </c>
       <c r="C24" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D24" s="2">
         <v>14</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="E24" s="3">
+        <v>8</v>
+      </c>
+      <c r="F24" s="3">
+        <v>40</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -1485,13 +1577,17 @@
         <v>12</v>
       </c>
       <c r="C25" s="2">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D25" s="2">
         <v>14</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="E25" s="3">
+        <v>8</v>
+      </c>
+      <c r="F25" s="3">
+        <v>40</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -1501,13 +1597,17 @@
         <v>12</v>
       </c>
       <c r="C26" s="2">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D26" s="2">
         <v>14</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+      <c r="E26" s="3">
+        <v>7</v>
+      </c>
+      <c r="F26" s="3">
+        <v>38</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -1517,13 +1617,17 @@
         <v>12</v>
       </c>
       <c r="C27" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D27" s="2">
         <v>14</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+      <c r="E27" s="3">
+        <v>7</v>
+      </c>
+      <c r="F27" s="3">
+        <v>37.5</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -1533,29 +1637,17 @@
         <v>12</v>
       </c>
       <c r="C28" s="2">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D28" s="2">
         <v>14</v>
       </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="2">
-        <v>50</v>
-      </c>
-      <c r="D29" s="2">
-        <v>14</v>
-      </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+      <c r="E28" s="3">
+        <v>7</v>
+      </c>
+      <c r="F28" s="3">
+        <v>37.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1763,8 +1855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9307B5C-CA17-BC4E-BC4B-A6544335833A}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2080,7 +2172,7 @@
         <v>5</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -2094,7 +2186,7 @@
         <v>10</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -2108,7 +2200,7 @@
         <v>15</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -2122,7 +2214,7 @@
         <v>20</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -2136,7 +2228,7 @@
         <v>25</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -2150,7 +2242,7 @@
         <v>30</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -2164,7 +2256,7 @@
         <v>35</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -2178,7 +2270,7 @@
         <v>40</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -2192,7 +2284,7 @@
         <v>45</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -2206,7 +2298,7 @@
         <v>50</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2218,8 +2310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAFE17B8-5574-754A-9F3C-2C21A6C0B80B}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/stat_range_d.xlsx
+++ b/stat_range_d.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangyanh/PycharmProjects/code-FDM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC961EF-197D-FD43-851B-26E89CA155B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626EACA8-A2F3-364D-AA17-DE67CF6CDD22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28420" windowHeight="16120" activeTab="3" xr2:uid="{A961275D-17DE-BE40-B6A5-A93A17CFFC72}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28420" windowHeight="16120" activeTab="4" xr2:uid="{A961275D-17DE-BE40-B6A5-A93A17CFFC72}"/>
   </bookViews>
   <sheets>
     <sheet name="Adult" sheetId="1" r:id="rId1"/>
@@ -469,7 +469,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G30"/>
+      <selection activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1084,7 +1084,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1651,6 +1651,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1855,8 +1856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9307B5C-CA17-BC4E-BC4B-A6544335833A}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2310,8 +2311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAFE17B8-5574-754A-9F3C-2C21A6C0B80B}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2355,6 +2356,12 @@
       <c r="E2">
         <v>2</v>
       </c>
+      <c r="F2" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="G2" s="3">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -2372,6 +2379,12 @@
       <c r="E3">
         <v>2</v>
       </c>
+      <c r="F3">
+        <v>3.2</v>
+      </c>
+      <c r="G3" s="3">
+        <v>5.2</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -2389,6 +2402,12 @@
       <c r="E4">
         <v>2</v>
       </c>
+      <c r="F4" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="G4">
+        <v>5.8</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -2406,6 +2425,12 @@
       <c r="E5">
         <v>2</v>
       </c>
+      <c r="F5" s="3">
+        <v>2.9</v>
+      </c>
+      <c r="G5" s="3">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -2423,6 +2448,12 @@
       <c r="E6">
         <v>2</v>
       </c>
+      <c r="F6" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="G6" s="3">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -2440,6 +2471,12 @@
       <c r="E7">
         <v>10</v>
       </c>
+      <c r="F7" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="G7" s="3">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -2457,6 +2494,12 @@
       <c r="E8">
         <v>10</v>
       </c>
+      <c r="F8" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="G8" s="3">
+        <v>5.2</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -2474,6 +2517,12 @@
       <c r="E9">
         <v>10</v>
       </c>
+      <c r="F9" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="G9" s="3">
+        <v>5.8</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -2491,6 +2540,12 @@
       <c r="E10">
         <v>10</v>
       </c>
+      <c r="F10" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="G10" s="3">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -2508,6 +2563,12 @@
       <c r="E11">
         <v>10</v>
       </c>
+      <c r="F11" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="G11" s="3">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -2525,6 +2586,12 @@
       <c r="E12">
         <v>2</v>
       </c>
+      <c r="F12" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="G12" s="3">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -2542,6 +2609,12 @@
       <c r="E13">
         <v>4</v>
       </c>
+      <c r="F13" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="G13" s="3">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -2559,6 +2632,13 @@
       <c r="E14">
         <v>6</v>
       </c>
+      <c r="F14" s="3">
+        <f>3.3</f>
+        <v>3.3</v>
+      </c>
+      <c r="G14" s="3">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -2576,6 +2656,12 @@
       <c r="E15">
         <v>8</v>
       </c>
+      <c r="F15" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="G15" s="3">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -2593,8 +2679,14 @@
       <c r="E16">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="G16" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -2610,8 +2702,14 @@
       <c r="E17">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="G17" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -2627,8 +2725,14 @@
       <c r="E18">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="G18" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2644,8 +2748,14 @@
       <c r="E19">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="G19" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2661,8 +2771,14 @@
       <c r="E20">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="G20" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -2677,6 +2793,12 @@
       </c>
       <c r="E21">
         <v>20</v>
+      </c>
+      <c r="F21" s="3">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/stat_range_d.xlsx
+++ b/stat_range_d.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangyanh/PycharmProjects/code-FDM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626EACA8-A2F3-364D-AA17-DE67CF6CDD22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA75DC21-8F3A-9349-84B7-5E92F5AE1B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28420" windowHeight="16120" activeTab="4" xr2:uid="{A961275D-17DE-BE40-B6A5-A93A17CFFC72}"/>
   </bookViews>
@@ -2312,7 +2312,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="F7" sqref="F7:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2426,7 +2426,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="3">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="G5" s="3">
         <v>6</v>
@@ -2449,7 +2449,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="3">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="G6" s="3">
         <v>6.5</v>
@@ -2541,7 +2541,7 @@
         <v>10</v>
       </c>
       <c r="F10" s="3">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="G10" s="3">
         <v>6</v>
@@ -2564,7 +2564,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="3">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="G11" s="3">
         <v>6.5</v>
@@ -2803,5 +2803,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/stat_range_d.xlsx
+++ b/stat_range_d.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangyanh/PycharmProjects/code-FDM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA75DC21-8F3A-9349-84B7-5E92F5AE1B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7C9C83-723A-B74D-A33C-84BBDDD313DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28420" windowHeight="16120" activeTab="4" xr2:uid="{A961275D-17DE-BE40-B6A5-A93A17CFFC72}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28420" windowHeight="16120" activeTab="3" xr2:uid="{A961275D-17DE-BE40-B6A5-A93A17CFFC72}"/>
   </bookViews>
   <sheets>
     <sheet name="Adult" sheetId="1" r:id="rId1"/>
@@ -1856,8 +1856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9307B5C-CA17-BC4E-BC4B-A6544335833A}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1895,6 +1895,12 @@
       <c r="D2">
         <v>2</v>
       </c>
+      <c r="E2">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -1909,6 +1915,12 @@
       <c r="D3">
         <v>2</v>
       </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -1923,6 +1935,12 @@
       <c r="D4">
         <v>2</v>
       </c>
+      <c r="E4">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -1937,6 +1955,12 @@
       <c r="D5">
         <v>2</v>
       </c>
+      <c r="E5">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -1951,6 +1975,12 @@
       <c r="D6">
         <v>2</v>
       </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -1965,6 +1995,12 @@
       <c r="D7">
         <v>2</v>
       </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -1979,6 +2015,12 @@
       <c r="D8">
         <v>2</v>
       </c>
+      <c r="E8">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -1993,6 +2035,12 @@
       <c r="D9">
         <v>2</v>
       </c>
+      <c r="E9">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -2007,6 +2055,12 @@
       <c r="D10">
         <v>2</v>
       </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -2021,6 +2075,12 @@
       <c r="D11">
         <v>2</v>
       </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>13</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -2035,6 +2095,12 @@
       <c r="D12">
         <v>2</v>
       </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+      <c r="F12">
+        <v>18</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -2049,6 +2115,12 @@
       <c r="D13">
         <v>2</v>
       </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>16</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -2063,6 +2135,12 @@
       <c r="D14">
         <v>2</v>
       </c>
+      <c r="E14">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>15</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -2077,6 +2155,12 @@
       <c r="D15">
         <v>2</v>
       </c>
+      <c r="E15">
+        <v>9</v>
+      </c>
+      <c r="F15">
+        <v>15</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -2091,8 +2175,14 @@
       <c r="D16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>9</v>
+      </c>
+      <c r="F16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2105,8 +2195,14 @@
       <c r="D17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>9</v>
+      </c>
+      <c r="F17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -2119,8 +2215,14 @@
       <c r="D18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <v>9</v>
+      </c>
+      <c r="F18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -2133,8 +2235,14 @@
       <c r="D19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <v>9</v>
+      </c>
+      <c r="F19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -2147,8 +2255,14 @@
       <c r="D20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <v>8</v>
+      </c>
+      <c r="F20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -2161,8 +2275,14 @@
       <c r="D21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <v>8</v>
+      </c>
+      <c r="F21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -2175,8 +2295,14 @@
       <c r="D22">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <v>11</v>
+      </c>
+      <c r="F22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -2189,8 +2315,14 @@
       <c r="D23">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23">
+        <v>9</v>
+      </c>
+      <c r="F23">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -2203,8 +2335,14 @@
       <c r="D24">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <v>9</v>
+      </c>
+      <c r="F24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -2217,8 +2355,14 @@
       <c r="D25">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25">
+        <v>9</v>
+      </c>
+      <c r="F25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -2231,8 +2375,14 @@
       <c r="D26">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26">
+        <v>8</v>
+      </c>
+      <c r="F26">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -2245,8 +2395,14 @@
       <c r="D27">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27">
+        <v>8</v>
+      </c>
+      <c r="F27">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -2259,8 +2415,14 @@
       <c r="D28">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28">
+        <v>8</v>
+      </c>
+      <c r="F28">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -2273,8 +2435,14 @@
       <c r="D29">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29">
+        <v>8</v>
+      </c>
+      <c r="F29">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -2287,8 +2455,14 @@
       <c r="D30">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E30">
+        <v>8</v>
+      </c>
+      <c r="F30">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -2300,6 +2474,12 @@
       </c>
       <c r="D31">
         <v>4</v>
+      </c>
+      <c r="E31">
+        <v>7</v>
+      </c>
+      <c r="F31">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2311,8 +2491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAFE17B8-5574-754A-9F3C-2C21A6C0B80B}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
